--- a/Portfolio/父母养老金计划.xlsx
+++ b/Portfolio/父母养老金计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3780" yWindow="30" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,17 +183,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -202,16 +203,6 @@
     <dxf>
       <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -511,16 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -586,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.14025000000000001</v>
+        <v>0.14574999999999999</v>
       </c>
       <c r="C4" s="1">
         <f>25/150</f>
@@ -594,7 +585,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>2.6416666666666644E-2</v>
+        <v>2.0916666666666667E-2</v>
       </c>
       <c r="E4" s="2">
         <v>-0.2</v>
@@ -620,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="C6" s="1">
         <f>4/150</f>
@@ -628,7 +619,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1.5666666666666669E-2</v>
+        <v>1.0166666666666668E-2</v>
       </c>
       <c r="E6" s="2">
         <v>-0.15</v>
@@ -639,16 +630,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="C7" s="1">
         <f>14/150</f>
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3333333333333427E-3</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="2">
         <v>-5.8000000000000003E-2</v>
       </c>
@@ -691,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C10" s="1">
         <f>9/150</f>
@@ -699,7 +687,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>4.3499999999999997E-2</v>
+        <v>2.6999999999999996E-2</v>
       </c>
       <c r="E10" s="2">
         <v>-0.25</v>
@@ -710,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C11" s="1">
         <f>5/150</f>
@@ -718,7 +706,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>1.6833333333333332E-2</v>
+        <v>1.1333333333333334E-2</v>
       </c>
       <c r="E11" s="2">
         <v>-0.22550000000000001</v>
@@ -837,15 +825,15 @@
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="C18" s="1">
-        <f>5/150</f>
-        <v>3.3333333333333333E-2</v>
+        <f>6/150</f>
+        <v>0.04</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>1.1333333333333334E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E18" s="2">
         <v>8.0999999999999996E-3</v>
@@ -892,14 +880,35 @@
       </c>
       <c r="B21" s="2">
         <f>1-SUM(B2:B20)</f>
-        <v>0.46374999999999988</v>
+        <v>0.41975000000000018</v>
       </c>
       <c r="C21" s="1">
         <f>1-SUM(C2:C20)</f>
-        <v>0.17333333333333345</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Portfolio/父母养老金计划.xlsx
+++ b/Portfolio/父母养老金计划.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="30" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -122,24 +132,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -148,9 +158,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -177,11 +203,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -190,9 +250,43 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="36">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -216,7 +310,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,12 +352,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -293,12 +387,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -502,22 +596,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -550,53 +644,47 @@
         <v>5.45E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.1729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>3.85E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="C3" s="1">
-        <f>7/150</f>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
-        <v>8.1666666666666693E-3</v>
-      </c>
+        <f>8/150</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.14574999999999999</v>
+        <v>0.1678</v>
       </c>
       <c r="C4" s="1">
         <f>25/150</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0916666666666667E-2</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="2">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -606,26 +694,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="C6" s="1">
         <f>4/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0166666666666668E-2</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="2">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -638,10 +723,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -654,11 +739,10 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2">
-        <f>-0.1822</f>
-        <v>-0.1822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.18190000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -671,48 +755,45 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
-        <v>-0.1222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C10" s="1">
         <f>9/150</f>
         <v>0.06</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999996E-2</v>
+        <f t="shared" ref="D10:D20" si="0">C10-B10</f>
+        <v>1.6E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.26069999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C11" s="1">
         <f>5/150</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1333333333333334E-2</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="2">
-        <v>-0.22550000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.2472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -728,10 +809,10 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -742,15 +823,15 @@
         <f>4/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>2.1166666666666667E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -766,7 +847,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -782,7 +863,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -798,48 +879,48 @@
         <v>5.45E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.43709999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>1.66E-2</v>
       </c>
       <c r="C17" s="1">
         <f>3/150</f>
         <v>0.02</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>1.4500000000000001E-2</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="E17" s="2">
-        <v>-3.3700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>2.75E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C18" s="1">
-        <f>6/150</f>
-        <v>0.04</v>
+        <f>7/150</f>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.3666666666666667E-2</v>
       </c>
       <c r="E18" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -852,10 +933,10 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.21820000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -874,41 +955,59 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
         <f>1-SUM(B2:B20)</f>
-        <v>0.41975000000000018</v>
+        <v>0.33150000000000013</v>
       </c>
       <c r="C21" s="1">
         <f>1-SUM(C2:C20)</f>
-        <v>0.16666666666666674</v>
+        <v>0.15333333333333332</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" s="4"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -931,7 +1030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -944,7 +1043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio/父母养老金计划.xlsx
+++ b/Portfolio/父母养老金计划.xlsx
@@ -203,11 +203,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -250,7 +256,7 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="42">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -270,6 +276,9 @@
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -287,6 +296,9 @@
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -599,7 +611,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -893,10 +905,7 @@
         <f>3/150</f>
         <v>0.02</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000002E-3</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="2">
         <v>-3.1899999999999998E-2</v>
       </c>

--- a/Portfolio/父母养老金计划.xlsx
+++ b/Portfolio/父母养老金计划.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ETF 计划差异" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -249,12 +249,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -611,7 +612,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,7 +657,7 @@
         <v>5.45E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1729</v>
+        <v>0.22639999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,7 +673,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2">
-        <v>-0.03</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,7 +689,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +720,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2">
-        <v>-0.16500000000000001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,7 +736,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2">
-        <v>-2.9000000000000001E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,7 +752,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2">
-        <v>-0.18190000000000001</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,7 +768,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
-        <v>-0.12089999999999999</v>
+        <v>-6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,7 +787,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.26069999999999999</v>
+        <v>-0.21729999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -802,7 +803,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
-        <v>-0.2472</v>
+        <v>-0.2039</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,12 +817,12 @@
         <f>3/150</f>
         <v>0.02</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>4.2299999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -835,12 +836,12 @@
         <f>4/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>2.1166666666666667E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>-2.1899999999999999E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -872,7 +873,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2">
-        <v>-0.09</v>
+        <v>-1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,9 +906,12 @@
         <f>3/150</f>
         <v>0.02</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
       <c r="E17" s="2">
-        <v>-3.1899999999999998E-2</v>
+        <v>-4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,12 +925,12 @@
         <f>7/150</f>
         <v>4.6666666666666669E-2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>1.3666666666666667E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>8.0999999999999996E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -956,12 +960,12 @@
         <f>1/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E20" s="2">
-        <v>1.15E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
